--- a/Anexos_tarea_2.xlsx
+++ b/Anexos_tarea_2.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A1_ESTANCIAS" sheetId="1" r:id="rId1"/>
     <sheet name="A2_CAMIONES" sheetId="2" r:id="rId2"/>
     <sheet name="A3_COMPACTACION" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>c1</t>
   </si>
@@ -605,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="J10:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1660,7 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
@@ -1688,8 +1689,23 @@
       <c r="C3" s="12">
         <v>75000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>25000</v>
+      </c>
+      <c r="H3">
+        <v>75000</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -1699,8 +1715,23 @@
       <c r="C4" s="2">
         <v>105000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>25000</v>
+      </c>
+      <c r="H4">
+        <v>75000</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>61</v>
       </c>
@@ -1710,286 +1741,1369 @@
       <c r="C5" s="8">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>25000</v>
+      </c>
+      <c r="H5">
+        <v>75000</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>25000</v>
+      </c>
+      <c r="H6">
+        <v>75000</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>25000</v>
+      </c>
+      <c r="H7">
+        <v>75000</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>35000</v>
+      </c>
+      <c r="H8">
+        <v>105000</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>50000</v>
+      </c>
+      <c r="H9">
+        <v>150000</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>25000</v>
+      </c>
+      <c r="H10">
+        <v>75000</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>25000</v>
+      </c>
+      <c r="H11">
+        <v>75000</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>25000</v>
+      </c>
+      <c r="H12">
+        <v>75000</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>25000</v>
+      </c>
+      <c r="H13">
+        <v>75000</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>25000</v>
+      </c>
+      <c r="H14">
+        <v>75000</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>35000</v>
+      </c>
+      <c r="H15">
+        <v>105000</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>50000</v>
+      </c>
+      <c r="H16">
+        <v>150000</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>25000</v>
+      </c>
+      <c r="H17">
+        <v>75000</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>25000</v>
+      </c>
+      <c r="H18">
+        <v>75000</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>25000</v>
+      </c>
+      <c r="H19">
+        <v>75000</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>25000</v>
+      </c>
+      <c r="H20">
+        <v>75000</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>25000</v>
+      </c>
+      <c r="H21">
+        <v>75000</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>35000</v>
+      </c>
+      <c r="H22">
+        <v>105000</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>50000</v>
+      </c>
+      <c r="H23">
+        <v>150000</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>25000</v>
+      </c>
+      <c r="H24">
+        <v>75000</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>25000</v>
+      </c>
+      <c r="H25">
+        <v>75000</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>25000</v>
+      </c>
+      <c r="H26">
+        <v>75000</v>
+      </c>
+      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>25000</v>
+      </c>
+      <c r="H27">
+        <v>75000</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>25000</v>
+      </c>
+      <c r="H28">
+        <v>75000</v>
+      </c>
+      <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>35000</v>
+      </c>
+      <c r="H29">
+        <v>105000</v>
+      </c>
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>50000</v>
+      </c>
+      <c r="H30">
+        <v>150000</v>
+      </c>
+      <c r="J30">
+        <v>28</v>
+      </c>
+      <c r="K30">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>25000</v>
+      </c>
+      <c r="H31">
+        <v>75000</v>
+      </c>
+      <c r="J31">
+        <v>29</v>
+      </c>
+      <c r="K31">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>25000</v>
+      </c>
+      <c r="H32">
+        <v>75000</v>
+      </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>25000</v>
+      </c>
+      <c r="H33">
+        <v>75000</v>
+      </c>
+      <c r="J33">
+        <v>31</v>
+      </c>
+      <c r="K33">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>25000</v>
+      </c>
+      <c r="H34">
+        <v>75000</v>
+      </c>
+      <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>25000</v>
+      </c>
+      <c r="H35">
+        <v>75000</v>
+      </c>
+      <c r="J35">
+        <v>33</v>
+      </c>
+      <c r="K35">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>35000</v>
+      </c>
+      <c r="H36">
+        <v>105000</v>
+      </c>
+      <c r="J36">
+        <v>34</v>
+      </c>
+      <c r="K36">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>50000</v>
+      </c>
+      <c r="H37">
+        <v>150000</v>
+      </c>
+      <c r="J37">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>25000</v>
+      </c>
+      <c r="H38">
+        <v>75000</v>
+      </c>
+      <c r="J38">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>37</v>
+      </c>
+      <c r="G39">
+        <v>25000</v>
+      </c>
+      <c r="H39">
+        <v>75000</v>
+      </c>
+      <c r="J39">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <v>25000</v>
+      </c>
+      <c r="H40">
+        <v>75000</v>
+      </c>
+      <c r="J40">
+        <v>38</v>
+      </c>
+      <c r="K40">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <v>25000</v>
+      </c>
+      <c r="H41">
+        <v>75000</v>
+      </c>
+      <c r="J41">
+        <v>39</v>
+      </c>
+      <c r="K41">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>25000</v>
+      </c>
+      <c r="H42">
+        <v>75000</v>
+      </c>
+      <c r="J42">
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>41</v>
+      </c>
+      <c r="G43">
+        <v>35000</v>
+      </c>
+      <c r="H43">
+        <v>105000</v>
+      </c>
+      <c r="J43">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <v>50000</v>
+      </c>
+      <c r="H44">
+        <v>150000</v>
+      </c>
+      <c r="J44">
+        <v>42</v>
+      </c>
+      <c r="K44">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>43</v>
+      </c>
+      <c r="G45">
+        <v>25000</v>
+      </c>
+      <c r="H45">
+        <v>75000</v>
+      </c>
+      <c r="J45">
+        <v>43</v>
+      </c>
+      <c r="K45">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>25000</v>
+      </c>
+      <c r="H46">
+        <v>75000</v>
+      </c>
+      <c r="J46">
+        <v>44</v>
+      </c>
+      <c r="K46">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>25000</v>
+      </c>
+      <c r="H47">
+        <v>75000</v>
+      </c>
+      <c r="J47">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <v>25000</v>
+      </c>
+      <c r="H48">
+        <v>75000</v>
+      </c>
+      <c r="J48">
+        <v>46</v>
+      </c>
+      <c r="K48">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>47</v>
+      </c>
+      <c r="G49">
+        <v>25000</v>
+      </c>
+      <c r="H49">
+        <v>75000</v>
+      </c>
+      <c r="J49">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>48</v>
+      </c>
+      <c r="G50">
+        <v>35000</v>
+      </c>
+      <c r="H50">
+        <v>105000</v>
+      </c>
+      <c r="J50">
+        <v>48</v>
+      </c>
+      <c r="K50">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>50000</v>
+      </c>
+      <c r="H51">
+        <v>150000</v>
+      </c>
+      <c r="J51">
+        <v>49</v>
+      </c>
+      <c r="K51">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>25000</v>
+      </c>
+      <c r="H52">
+        <v>75000</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+      <c r="K52">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>51</v>
+      </c>
+      <c r="G53">
+        <v>25000</v>
+      </c>
+      <c r="H53">
+        <v>75000</v>
+      </c>
+      <c r="J53">
+        <v>51</v>
+      </c>
+      <c r="K53">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>52</v>
+      </c>
+      <c r="G54">
+        <v>25000</v>
+      </c>
+      <c r="H54">
+        <v>75000</v>
+      </c>
+      <c r="J54">
+        <v>52</v>
+      </c>
+      <c r="K54">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>53</v>
+      </c>
+      <c r="G55">
+        <v>25000</v>
+      </c>
+      <c r="H55">
+        <v>75000</v>
+      </c>
+      <c r="J55">
+        <v>53</v>
+      </c>
+      <c r="K55">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>25000</v>
+      </c>
+      <c r="H56">
+        <v>75000</v>
+      </c>
+      <c r="J56">
+        <v>54</v>
+      </c>
+      <c r="K56">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>35000</v>
+      </c>
+      <c r="H57">
+        <v>105000</v>
+      </c>
+      <c r="J57">
+        <v>55</v>
+      </c>
+      <c r="K57">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>50000</v>
+      </c>
+      <c r="H58">
+        <v>150000</v>
+      </c>
+      <c r="J58">
+        <v>56</v>
+      </c>
+      <c r="K58">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>57</v>
+      </c>
+      <c r="G59">
+        <v>25000</v>
+      </c>
+      <c r="H59">
+        <v>75000</v>
+      </c>
+      <c r="J59">
+        <v>57</v>
+      </c>
+      <c r="K59">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>58</v>
+      </c>
+      <c r="G60">
+        <v>25000</v>
+      </c>
+      <c r="H60">
+        <v>75000</v>
+      </c>
+      <c r="J60">
+        <v>58</v>
+      </c>
+      <c r="K60">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
+      <c r="F61">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <v>25000</v>
+      </c>
+      <c r="H61">
+        <v>75000</v>
+      </c>
+      <c r="J61">
+        <v>59</v>
+      </c>
+      <c r="K61">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>60</v>
+      </c>
+      <c r="G62">
+        <v>25000</v>
+      </c>
+      <c r="H62">
+        <v>75000</v>
+      </c>
+      <c r="J62">
+        <v>60</v>
+      </c>
+      <c r="K62">
+        <v>75000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="12">
+        <v>5860</v>
+      </c>
+      <c r="C1" s="12">
+        <v>254</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12">
+        <v>15000</v>
+      </c>
+      <c r="G1" s="13">
+        <v>494.32</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>25000</v>
+      </c>
+      <c r="L1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2">
+        <v>86025</v>
+      </c>
+      <c r="C2" s="2">
+        <v>562</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>554.44000000000005</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>25000</v>
+      </c>
+      <c r="L2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6354</v>
+      </c>
+      <c r="C3" s="1">
+        <v>325</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>614.55999999999995</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>25000</v>
+      </c>
+      <c r="L3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42990</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>641.28</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>25000</v>
+      </c>
+      <c r="L4">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>98818</v>
+      </c>
+      <c r="C5" s="1">
+        <v>361</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>721.44</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>25000</v>
+      </c>
+      <c r="L5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>808.28</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>35000</v>
+      </c>
+      <c r="L6">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>855.04</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>50000</v>
+      </c>
+      <c r="L7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>23000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>881.76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
